--- a/src/main/resources/static/source/评审任务管理表.xlsx
+++ b/src/main/resources/static/source/评审任务管理表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\评审系统-分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\gittest\review\src\main\resources\static\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC41CF8-E6E2-4A6D-9713-95AC8729C4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9B6EEE-7D4C-4E30-8E02-BBA10E48B71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>评审任务名</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>长庆油田评估2</t>
-  </si>
-  <si>
-    <t>财务</t>
   </si>
   <si>
     <t>西藏油田勘测</t>
@@ -218,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,9 +241,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +539,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,10 +567,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -590,15 +584,15 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>25</v>
+      <c r="J1" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -607,11 +601,11 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>28</v>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F2" s="7">
         <v>45033</v>
@@ -622,18 +616,18 @@
       <c r="H2" s="8">
         <v>45033.458333333299</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>29</v>
+      <c r="I2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="K2" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -642,11 +636,11 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>28</v>
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="7">
         <v>45033</v>
@@ -657,31 +651,31 @@
       <c r="H3" s="8">
         <v>45033.458333333299</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>29</v>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="K3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>28</v>
+      <c r="D4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F4" s="7">
         <v>45031</v>
@@ -692,31 +686,31 @@
       <c r="H4" s="8">
         <v>45033.458333333299</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>29</v>
+      <c r="J4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="K4" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>28</v>
+      <c r="D5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F5" s="7">
         <v>45033</v>
@@ -727,31 +721,31 @@
       <c r="H5" s="8">
         <v>45033.458333333299</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>29</v>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="K5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>28</v>
+      <c r="D6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="7">
         <v>45033</v>
@@ -762,31 +756,31 @@
       <c r="H6" s="8">
         <v>45033.458333333336</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>29</v>
+      <c r="J6" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="K6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>28</v>
+      <c r="D7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="7">
         <v>45085</v>
@@ -794,14 +788,14 @@
       <c r="G7" s="8">
         <v>45085.791666666664</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>45085.875</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>29</v>
+      <c r="J7" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="K7" s="6">
         <v>2</v>
@@ -809,9 +803,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{237A6C94-DE05-4A8D-83C1-C16E2099D4AB}">
       <formula1>"华东,华西,华中,华北,华南"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{54975F0D-9105-425D-9BCC-F33A6CA4D498}">
+      <formula1>"财务,工程,地质"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
